--- a/صيدليات دكتور مصطفي طلعت_2026-01-09_20-08.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-09_20-08.xlsx
@@ -398,16 +398,13 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>-11:0</t>
-  </si>
-  <si>
-    <t>22:0</t>
+    <t>-2:0</t>
+  </si>
+  <si>
+    <t>24:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>-2:0</t>
   </si>
   <si>
     <t>صوفى طويل جدا جدا</t>
@@ -3410,7 +3407,7 @@
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M96" s="9"/>
       <c t="s" r="N96" s="7">
@@ -3430,7 +3427,7 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c t="s" r="H97" s="8">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
@@ -3448,7 +3445,7 @@
         <v>95</v>
       </c>
       <c t="s" r="B98" s="7">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
@@ -3456,7 +3453,7 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c t="s" r="H98" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
@@ -3474,7 +3471,7 @@
         <v>96</v>
       </c>
       <c t="s" r="B99" s="7">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
@@ -3482,7 +3479,7 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c t="s" r="H99" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
@@ -3497,7 +3494,7 @@
     </row>
     <row r="100" ht="26.25" customHeight="1">
       <c r="K100" s="10">
-        <v>6644.5</v>
+        <v>6648.5</v>
       </c>
       <c r="L100" s="10"/>
       <c r="M100" s="10"/>
@@ -3505,19 +3502,19 @@
     </row>
     <row r="101" ht="16.5" customHeight="1">
       <c t="s" r="A101" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
       <c r="D101" s="11"/>
       <c r="E101" s="11"/>
       <c t="s" r="F101" s="12">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G101" s="12"/>
       <c r="H101" s="13"/>
       <c t="s" r="I101" s="14">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J101" s="14"/>
       <c r="K101" s="14"/>
